--- a/results/mergesort_details.xlsx
+++ b/results/mergesort_details.xlsx
@@ -8,6 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="N=500" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="N=1000" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="N=5000" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="N=30000" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="N=80000" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="N=100000" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="N=150000" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="N=200000" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.4570 ms</t>
+          <t>0.5331 ms</t>
         </is>
       </c>
     </row>
@@ -449,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.4470 ms</t>
+          <t>0.5231 ms</t>
         </is>
       </c>
     </row>
@@ -459,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.4449 ms</t>
+          <t>0.5240 ms</t>
         </is>
       </c>
     </row>
@@ -469,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.4561 ms</t>
+          <t>0.5360 ms</t>
         </is>
       </c>
     </row>
@@ -479,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.4420 ms</t>
+          <t>0.5450 ms</t>
         </is>
       </c>
     </row>
@@ -491,7 +498,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.4494 ms</t>
+          <t>0.5322 ms</t>
         </is>
       </c>
     </row>
@@ -503,7 +510,742 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.0068 ms</t>
+          <t>0.0091 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.1752 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.1687 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.1671 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.1649 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.1871 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1.1726 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.0090 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>7.1552 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7.1499 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7.1559 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>7.9439 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>7.7062 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7.4222 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.3772 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>51.0719 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>51.2609 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>51.4529 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>51.1978 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>52.8929 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>51.5753 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.7493 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>150.8682 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>150.5640 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>149.6270 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>149.3750 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>149.3928 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>149.9654 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.7008 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>192.2071 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>189.3220 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>190.1202 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>189.7521 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>189.3871 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>190.1577 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.1893 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>298.0211 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>296.2708 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>296.7029 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>305.9359 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>295.4082 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>298.4678 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4.2800 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>401.0620 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>401.4010 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>400.7418 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>401.0692 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>400.0590 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>400.8666 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.5081 ms</t>
         </is>
       </c>
     </row>
